--- a/fixtures/ac-test-orgas.xlsx
+++ b/fixtures/ac-test-orgas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/math/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/math/Work/BetaGouv/AidantsConnect/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB641724-9D88-3B45-90B4-8F0599CE5D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECD30DB-B225-E843-9D43-6B19EFC4B5AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6420" yWindow="3240" windowWidth="25600" windowHeight="15540" xr2:uid="{48E1F8FF-9A78-2C40-99E7-588D41146F54}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Maison France Services Arcachon</t>
   </si>
@@ -118,6 +118,27 @@
   </si>
   <si>
     <t>0633333333</t>
+  </si>
+  <si>
+    <t>TEST ORGA</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>TTT-TTT-TTT</t>
+  </si>
+  <si>
+    <t>metamatik@gmail.com</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Matik</t>
+  </si>
+  <si>
+    <t>0612345678</t>
   </si>
 </sst>
 </file>
@@ -164,8 +185,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -481,143 +502,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2371E6F-F755-7F43-B65E-7F0AF2965B9F}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" customWidth="1"/>
-    <col min="10" max="10" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>33120</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>62400</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>94000</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
